--- a/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0804048411775558</v>
+        <v>1.0804048453020543</v>
       </c>
       <c r="C2">
-        <v>0.80653522185182092</v>
+        <v>0.80653522335789452</v>
       </c>
       <c r="D2">
-        <v>3.9137034278271194</v>
+        <v>3.9137034355200888</v>
       </c>
       <c r="E2">
-        <v>1.5327269164793857</v>
+        <v>1.5327268617739631</v>
       </c>
       <c r="F2">
-        <v>5.6373215051835208</v>
+        <v>5.6373214791758528</v>
       </c>
       <c r="G2">
-        <v>1.6691457068385531</v>
+        <v>1.6691456935318594</v>
       </c>
       <c r="H2">
-        <v>5.2183911314753049</v>
+        <v>5.2183910763741252</v>
       </c>
       <c r="I2">
-        <v>0.33449980159547688</v>
+        <v>0.33449980187272482</v>
       </c>
       <c r="J2">
-        <v>7.2290499410873821</v>
+        <v>7.2290497095945314</v>
       </c>
       <c r="K2">
-        <v>2.3129150083891372</v>
+        <v>2.3129149921130292</v>
       </c>
       <c r="L2">
-        <v>1.7882085485854067</v>
+        <v>1.788208578924775</v>
       </c>
       <c r="M2">
-        <v>1.969740141316807</v>
+        <v>1.969740128996128</v>
       </c>
       <c r="N2">
-        <v>9.4527355964007159E-2</v>
+        <v>9.4527355638662811E-2</v>
       </c>
       <c r="O2">
-        <v>1.02524149655737</v>
+        <v>1.0252414986502871</v>
       </c>
       <c r="P2">
-        <v>0.47683296450989943</v>
+        <v>0.47683294596741704</v>
       </c>
       <c r="Q2">
-        <v>0.70973551615567154</v>
+        <v>0.70973552102402582</v>
       </c>
       <c r="R2">
-        <v>1.370831959371589</v>
+        <v>1.3708319777246605</v>
       </c>
       <c r="S2">
-        <v>1.3092382727865428</v>
+        <v>1.3092382740322566</v>
       </c>
       <c r="T2">
-        <v>0.47364495987271277</v>
+        <v>0.47364494722661099</v>
       </c>
       <c r="U2">
-        <v>1.8491897631642367</v>
+        <v>1.8491897417155763</v>
       </c>
       <c r="V2">
-        <v>1.2920060630002195</v>
+        <v>1.2920060634813022</v>
       </c>
       <c r="W2">
-        <v>0.85342132256450098</v>
+        <v>0.8534213239946935</v>
       </c>
       <c r="X2">
-        <v>0.29392246610227235</v>
+        <v>0.29392246258190557</v>
       </c>
       <c r="Y2">
-        <v>0.26017715753891935</v>
+        <v>0.2601771536270433</v>
       </c>
       <c r="AA2">
-        <v>1.6914795611925164</v>
+        <v>1.6914795794102406</v>
       </c>
       <c r="AB2">
-        <v>0.36487328702467187</v>
+        <v>0.36487331129775569</v>
       </c>
       <c r="AC2">
-        <v>3.3658230035734915</v>
+        <v>3.3658230260245587</v>
       </c>
       <c r="AD2">
-        <v>0.54399121750720247</v>
+        <v>0.54399121352889579</v>
       </c>
       <c r="AE2">
-        <v>2.53088338055358</v>
+        <v>2.5308834093802832</v>
       </c>
       <c r="AF2">
-        <v>2.0090125638425524</v>
+        <v>2.0090125071192553</v>
       </c>
       <c r="AG2">
-        <v>1.9349663859054609</v>
+        <v>1.9349663817167895</v>
       </c>
       <c r="AH2">
-        <v>0.24982803435330636</v>
+        <v>0.2498280317116251</v>
       </c>
       <c r="AI2">
-        <v>7.1668295308472292</v>
+        <v>7.1668295344192119</v>
       </c>
       <c r="AJ2">
-        <v>3.5985740862602129</v>
+        <v>3.5985740570116791</v>
       </c>
       <c r="AK2">
-        <v>1.4596257711396916</v>
+        <v>1.4596257679204194</v>
       </c>
       <c r="AL2">
-        <v>0.98888398192998361</v>
+        <v>0.98888396853988625</v>
       </c>
       <c r="AM2">
-        <v>0.13617908586312896</v>
+        <v>0.13617908564217249</v>
       </c>
       <c r="AN2">
-        <v>3.2922372966986915</v>
+        <v>3.2922372724995066</v>
       </c>
       <c r="AO2">
-        <v>0.27227081776572676</v>
+        <v>0.27227081688273869</v>
       </c>
       <c r="AP2">
-        <v>0.8328822601466308</v>
+        <v>0.83288220834832249</v>
       </c>
       <c r="AQ2">
-        <v>0.99785891235742241</v>
+        <v>0.99785890624759799</v>
       </c>
       <c r="AR2">
-        <v>0.55125518754067349</v>
+        <v>0.55125517516161127</v>
       </c>
       <c r="AS2">
-        <v>0.45158791317668856</v>
+        <v>0.45158791414391219</v>
       </c>
       <c r="AT2">
-        <v>1.3194816967346352</v>
+        <v>1.319481699078151</v>
       </c>
       <c r="AU2">
-        <v>0.88468768625728056</v>
+        <v>0.88468767782215796</v>
       </c>
       <c r="AV2">
-        <v>0.46762016970813808</v>
+        <v>0.46762017162482294</v>
       </c>
       <c r="AW2">
-        <v>0.21233039441942991</v>
+        <v>0.21233039570717543</v>
       </c>
       <c r="AX2">
-        <v>0.21736443724109061</v>
+        <v>0.21736443755104434</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9408169897962013</v>
+        <v>5.9408167921118151</v>
       </c>
       <c r="C3">
-        <v>0.86031902417644734</v>
+        <v>0.86031903537159748</v>
       </c>
       <c r="D3">
-        <v>0.92798784648175725</v>
+        <v>0.92798785144148377</v>
       </c>
       <c r="E3">
-        <v>4.3560725133821334</v>
+        <v>4.3560724666148891</v>
       </c>
       <c r="F3">
-        <v>2.0895764572134423</v>
+        <v>2.089576443828042</v>
       </c>
       <c r="G3">
-        <v>2.0558307813770798</v>
+        <v>2.0558307687317772</v>
       </c>
       <c r="H3">
-        <v>5.2394149891291217</v>
+        <v>5.2394150997042921</v>
       </c>
       <c r="I3">
-        <v>0.63959175924240386</v>
+        <v>0.63959179008058076</v>
       </c>
       <c r="J3">
-        <v>5.9161433108528625</v>
+        <v>5.9161436115368051</v>
       </c>
       <c r="K3">
-        <v>2.4214019347852771</v>
+        <v>2.4214020007667365</v>
       </c>
       <c r="L3">
-        <v>1.2034641097682466</v>
+        <v>1.2034641331878868</v>
       </c>
       <c r="M3">
-        <v>0.71461692813526834</v>
+        <v>0.71465027490191524</v>
       </c>
       <c r="N3">
-        <v>0.63775846757995247</v>
+        <v>0.63775836925333151</v>
       </c>
       <c r="O3">
-        <v>1.899726450634881</v>
+        <v>1.8997263969175724</v>
       </c>
       <c r="P3">
-        <v>0.41976081437833301</v>
+        <v>0.41976081333380472</v>
       </c>
       <c r="Q3">
-        <v>0.61518824540089301</v>
+        <v>0.6151882464205507</v>
       </c>
       <c r="R3">
-        <v>0.49570421837511508</v>
+        <v>0.49570421829894007</v>
       </c>
       <c r="S3">
-        <v>0.27698474640258164</v>
+        <v>0.2769847502375764</v>
       </c>
       <c r="T3">
-        <v>0.2294478114047091</v>
+        <v>0.22944781255208122</v>
       </c>
       <c r="U3">
-        <v>2.5438748206937252</v>
+        <v>2.5438747914519793</v>
       </c>
       <c r="V3">
-        <v>0.91655844640375772</v>
+        <v>0.916558448687535</v>
       </c>
       <c r="W3">
-        <v>0.16897655905911502</v>
+        <v>0.1689765630242859</v>
       </c>
       <c r="X3">
-        <v>0.58436637399007108</v>
+        <v>0.5843663743793639</v>
       </c>
       <c r="Y3">
-        <v>0.73770543459571924</v>
+        <v>0.73770542901818481</v>
       </c>
       <c r="AA3">
-        <v>1.1968511420190666</v>
+        <v>1.1968510513003325</v>
       </c>
       <c r="AB3">
-        <v>5.018427290114464</v>
+        <v>5.018427381210004</v>
       </c>
       <c r="AC3">
-        <v>1.3427693168573818</v>
+        <v>1.3427693160346919</v>
       </c>
       <c r="AD3">
-        <v>1.2239619122891539</v>
+        <v>1.2239619353438038</v>
       </c>
       <c r="AE3">
-        <v>2.2178121240169029</v>
+        <v>2.217812196913989</v>
       </c>
       <c r="AF3">
-        <v>0.86269801167514903</v>
+        <v>0.86269799717641416</v>
       </c>
       <c r="AG3">
-        <v>1.2897718039413231</v>
+        <v>1.2897717995617817</v>
       </c>
       <c r="AH3">
-        <v>0.56385400668744823</v>
+        <v>0.56385400796575547</v>
       </c>
       <c r="AI3">
-        <v>2.9109336194797448</v>
+        <v>2.910933541887113</v>
       </c>
       <c r="AJ3">
-        <v>2.4468209207995057</v>
+        <v>2.4468209014044442</v>
       </c>
       <c r="AK3">
-        <v>0.53627980190002111</v>
+        <v>0.5362797980884777</v>
       </c>
       <c r="AL3">
-        <v>0.54054619647503555</v>
+        <v>0.54054619345820509</v>
       </c>
       <c r="AM3">
-        <v>0.40143629453063062</v>
+        <v>0.40143632450453087</v>
       </c>
       <c r="AN3">
-        <v>1.6867536624096822</v>
+        <v>1.6867536660769435</v>
       </c>
       <c r="AO3">
-        <v>0.28574491422460285</v>
+        <v>0.28574491187892975</v>
       </c>
       <c r="AP3">
-        <v>0.23447617824962702</v>
+        <v>0.2344761768706376</v>
       </c>
       <c r="AQ3">
-        <v>0.24835413716729357</v>
+        <v>0.24835413682220092</v>
       </c>
       <c r="AR3">
-        <v>0.20204477586493569</v>
+        <v>0.20204477556613482</v>
       </c>
       <c r="AS3">
-        <v>0.22328335353150056</v>
+        <v>0.22328335344269251</v>
       </c>
       <c r="AT3">
-        <v>1.0192047910530673</v>
+        <v>1.0192047860657358</v>
       </c>
       <c r="AU3">
-        <v>1.0044783226265623</v>
+        <v>1.0044783299792321</v>
       </c>
       <c r="AV3">
-        <v>0.23918910245406697</v>
+        <v>0.23918909911633709</v>
       </c>
       <c r="AW3">
-        <v>0.36728455558075385</v>
+        <v>0.36728455346076933</v>
       </c>
       <c r="AX3">
-        <v>0.83163146292518264</v>
+        <v>0.83163146286535417</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.0804048453020543</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.80653522335789452</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.9137034355200888</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.5327268617739631</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>5.6373214791758528</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.6691456935318594</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5.2183910763741252</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.33449980187272482</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>7.2290497095945314</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.3129149921130292</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.788208578924775</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.969740128996128</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.4527355638662811E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.0252414986502871</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.47683294596741704</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.70973552102402582</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.3708319777246605</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>1.3092382740322566</v>
@@ -585,55 +474,55 @@
         <v>0.2601771536270433</v>
       </c>
       <c r="AA2">
-        <v>1.6914795794102406</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.36487331129775569</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.3658230260245587</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.54399121352889579</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>2.5308834093802832</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2.0090125071192553</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.9349663817167895</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.2498280317116251</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>7.1668295344192119</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.5985740570116791</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.4596257679204194</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.98888396853988625</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.13617908564217249</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.2922372724995066</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.27227081688273869</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83288220834832249</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.99785890624759799</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.55125517516161127</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.21736443755104434</v>
       </c>
+      <c r="AY2">
+        <v>0.7588887553863175</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.9408167921118151</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.86031903537159748</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.92798785144148377</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.3560724666148891</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.089576443828042</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.0558307687317772</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>5.2394150997042921</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.63959179008058076</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.9161436115368051</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.4214020007667365</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2034641331878868</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.71465027490191524</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.63775836925333151</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.8997263969175724</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.41976081333380472</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6151882464205507</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.49570421829894007</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.2769847502375764</v>
@@ -734,55 +623,55 @@
         <v>0.73770542901818481</v>
       </c>
       <c r="AA3">
-        <v>1.1968510513003325</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>5.018427381210004</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.3427693160346919</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.2239619353438038</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.217812196913989</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.86269799717641416</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.2897717995617817</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.56385400796575547</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.910933541887113</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.4468209014044442</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.5362797980884777</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.54054619345820509</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.40143632450453087</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.6867536660769435</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.28574491187892975</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.2344761768706376</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.24835413682220092</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.20204477556613482</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>0.83163146286535417</v>
+      </c>
+      <c r="AY3">
+        <v>0.6616283163715353</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.0804048411775558</v>
+        <v>0.58486341587430513</v>
       </c>
       <c r="C2">
-        <v>0.80653522185182092</v>
+        <v>1.3708319777246605</v>
       </c>
       <c r="D2">
-        <v>3.6381555741657516</v>
+        <v>3.2922372724995066</v>
       </c>
       <c r="E2">
-        <v>1.5327269164793857</v>
+        <v>0.99785890624759799</v>
       </c>
       <c r="F2">
         <v>5.6373215051835208</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9408169897962013</v>
+        <v>1.8997263969175724</v>
       </c>
       <c r="C3">
-        <v>0.86031902417644734</v>
+        <v>0.49570421829894007</v>
       </c>
       <c r="D3">
-        <v>0.92798784648175725</v>
+        <v>1.6867536660769435</v>
       </c>
       <c r="E3">
-        <v>4.3560725133821334</v>
+        <v>0.19224433899932919</v>
       </c>
       <c r="F3">
         <v>2.0895764572134423</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1.0804048411775558</v>
-      </c>
       <c r="C2">
-        <v>0.80653522185182092</v>
+        <v>1.2093452929750623</v>
       </c>
       <c r="D2">
-        <v>3.6381555741657516</v>
+        <v>0.27049389530226514</v>
       </c>
       <c r="E2">
-        <v>1.5327269164793857</v>
+        <v>3.4592388228240232</v>
       </c>
       <c r="F2">
         <v>5.6373215051835208</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9408169897962013</v>
+        <v>0.63775836925333151</v>
       </c>
       <c r="C3">
-        <v>0.86031902417644734</v>
+        <v>1.8997263969175724</v>
       </c>
       <c r="D3">
-        <v>0.92798784648175725</v>
+        <v>0.40143632450453087</v>
       </c>
       <c r="E3">
-        <v>4.3560725133821334</v>
+        <v>1.6867536660769435</v>
       </c>
       <c r="F3">
         <v>2.0895764572134423</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1.5860523909831448</v>
+      </c>
       <c r="C2">
+        <v>0.80653522335789452</v>
+      </c>
+      <c r="D2">
+        <v>9.4860870613117161</v>
+      </c>
+      <c r="E2">
+        <v>5.6524414776577308</v>
+      </c>
+      <c r="F2">
+        <v>5.6373214791758528</v>
+      </c>
+      <c r="G2">
+        <v>1.6691456935318594</v>
+      </c>
+      <c r="H2">
+        <v>6.1716106146795999</v>
+      </c>
+      <c r="I2">
+        <v>0.58055630632035593</v>
+      </c>
+      <c r="J2">
+        <v>7.3787192125012666</v>
+      </c>
+      <c r="K2">
+        <v>4.229597738439546</v>
+      </c>
+      <c r="L2">
+        <v>3.8329618193416222</v>
+      </c>
+      <c r="M2">
+        <v>1.969740128996128</v>
+      </c>
+      <c r="O2">
         <v>1.2093452929750623</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.47683294596741704</v>
+      </c>
+      <c r="Q2">
+        <v>0.70973552102402582</v>
+      </c>
+      <c r="R2">
+        <v>1.3708319777246605</v>
+      </c>
+      <c r="S2">
+        <v>1.4556468603407211</v>
+      </c>
+      <c r="T2">
+        <v>0.57032983952677152</v>
+      </c>
+      <c r="U2">
+        <v>2.7626388511861655</v>
+      </c>
+      <c r="V2">
+        <v>1.8911512664758252</v>
+      </c>
+      <c r="W2">
+        <v>3.1115247594500213</v>
+      </c>
+      <c r="X2">
+        <v>1.3290151974818056</v>
+      </c>
+      <c r="Y2">
+        <v>0.30104216098904968</v>
+      </c>
+      <c r="AA2">
+        <v>1.7590500543988117</v>
+      </c>
+      <c r="AB2">
+        <v>0.36487331129680145</v>
+      </c>
+      <c r="AC2">
+        <v>8.5505321878459029</v>
+      </c>
+      <c r="AD2">
+        <v>1.881864671114172</v>
+      </c>
+      <c r="AE2">
+        <v>2.5308834093802832</v>
+      </c>
+      <c r="AF2">
+        <v>2.0090125071192553</v>
+      </c>
+      <c r="AG2">
+        <v>2.4926851739598184</v>
+      </c>
+      <c r="AH2">
+        <v>0.8021286330600168</v>
+      </c>
+      <c r="AI2">
+        <v>7.2295813927437376</v>
+      </c>
+      <c r="AJ2">
+        <v>4.8431003019809173</v>
+      </c>
+      <c r="AK2">
+        <v>2.6588089319740948</v>
+      </c>
+      <c r="AL2">
+        <v>0.98888396853988625</v>
+      </c>
+      <c r="AM2">
         <v>0.27049389530226514</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.4592388228240232</v>
       </c>
-      <c r="F2">
-        <v>5.6373215051835208</v>
-      </c>
-      <c r="G2">
-        <v>1.6691457068385531</v>
-      </c>
-      <c r="H2">
-        <v>5.2183911314753049</v>
-      </c>
-      <c r="I2">
-        <v>0.33449980159547688</v>
-      </c>
-      <c r="J2">
-        <v>7.2290499410873821</v>
-      </c>
-      <c r="K2">
-        <v>2.3129150083891372</v>
-      </c>
-      <c r="L2">
-        <v>1.7882085485854067</v>
-      </c>
-      <c r="M2">
-        <v>1.969740141316807</v>
-      </c>
-      <c r="O2">
-        <v>0.58486341403345432</v>
-      </c>
-      <c r="P2">
-        <v>0.47683296450989943</v>
-      </c>
-      <c r="Q2">
-        <v>0.70973551615567154</v>
-      </c>
-      <c r="R2">
-        <v>1.370831959371589</v>
-      </c>
-      <c r="S2">
-        <v>1.3092382727865428</v>
-      </c>
-      <c r="T2">
-        <v>0.57032987196460416</v>
-      </c>
-      <c r="U2">
-        <v>1.8491897631642367</v>
-      </c>
-      <c r="V2">
-        <v>1.2920060630002195</v>
-      </c>
-      <c r="W2">
-        <v>0.85240593415061239</v>
-      </c>
-      <c r="X2">
-        <v>0.29392246610227235</v>
-      </c>
-      <c r="Y2">
-        <v>0.25983117939758194</v>
-      </c>
-      <c r="AA2">
-        <v>1.6914795611925164</v>
-      </c>
-      <c r="AB2">
-        <v>0.36487328702371424</v>
-      </c>
-      <c r="AC2">
-        <v>3.3658230035734915</v>
-      </c>
-      <c r="AD2">
-        <v>0.54399121750720247</v>
-      </c>
-      <c r="AE2">
-        <v>2.53088338055358</v>
-      </c>
-      <c r="AF2">
-        <v>2.0090125638425524</v>
-      </c>
-      <c r="AG2">
-        <v>1.9349663859054609</v>
-      </c>
-      <c r="AH2">
-        <v>0.48413720990713138</v>
-      </c>
-      <c r="AI2">
-        <v>7.1668295308472292</v>
-      </c>
-      <c r="AJ2">
-        <v>3.5985740862602129</v>
-      </c>
-      <c r="AK2">
-        <v>1.4596257711396916</v>
-      </c>
-      <c r="AL2">
-        <v>0.98888398192998361</v>
-      </c>
-      <c r="AM2">
-        <v>0.13617908586312896</v>
-      </c>
-      <c r="AN2">
-        <v>3.2922372966986915</v>
-      </c>
       <c r="AO2">
-        <v>0.27227081776572676</v>
+        <v>0.27227081688273869</v>
       </c>
       <c r="AP2">
-        <v>0.77396560536182946</v>
+        <v>0.77396559340733939</v>
       </c>
       <c r="AQ2">
-        <v>0.99785891235742241</v>
+        <v>0.99785890624759799</v>
       </c>
       <c r="AR2">
-        <v>0.55125518754067349</v>
+        <v>1.0062229756979471</v>
       </c>
       <c r="AS2">
-        <v>0.45158791317668856</v>
+        <v>0.45158791414391219</v>
       </c>
       <c r="AT2">
-        <v>1.3194816967346352</v>
+        <v>1.3414038299843709</v>
       </c>
       <c r="AU2">
-        <v>0.88468768625728056</v>
+        <v>1.4251594251528998</v>
       </c>
       <c r="AV2">
-        <v>0.46666936009234383</v>
+        <v>2.2094649437930691</v>
       </c>
       <c r="AW2">
-        <v>0.21233039441942991</v>
+        <v>0.34174046386539547</v>
       </c>
       <c r="AX2">
-        <v>0.21736443724109061</v>
+        <v>0.22155585435264361</v>
       </c>
       <c r="AY2">
-        <v>0.75888876107568337</v>
+        <v>0.7588887553863175</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.9408167921118151</v>
+      </c>
+      <c r="C3">
+        <v>1.4014489037587672</v>
+      </c>
+      <c r="D3">
+        <v>0.92798785144148377</v>
+      </c>
+      <c r="E3">
+        <v>4.3560724666148891</v>
+      </c>
+      <c r="F3">
+        <v>3.3235869298203946</v>
+      </c>
+      <c r="G3">
+        <v>2.4212006958968488</v>
+      </c>
+      <c r="H3">
+        <v>5.2394150997042921</v>
+      </c>
+      <c r="I3">
+        <v>0.89758765038286992</v>
+      </c>
+      <c r="J3">
+        <v>5.9161436115368051</v>
+      </c>
+      <c r="K3">
+        <v>2.4214020007667365</v>
+      </c>
+      <c r="L3">
+        <v>1.2034641331878868</v>
+      </c>
+      <c r="M3">
+        <v>1.4568090026677329</v>
+      </c>
+      <c r="N3">
         <v>0.63775836925333151</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.8997263969175724</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.58121510519088726</v>
+      </c>
+      <c r="Q3">
+        <v>0.66362469176408234</v>
+      </c>
+      <c r="R3">
+        <v>0.63773062080376075</v>
+      </c>
+      <c r="S3">
+        <v>0.31238378496725716</v>
+      </c>
+      <c r="T3">
+        <v>0.29751446023966988</v>
+      </c>
+      <c r="U3">
+        <v>2.5438747914519793</v>
+      </c>
+      <c r="V3">
+        <v>0.916558448687535</v>
+      </c>
+      <c r="W3">
+        <v>0.14149731019250239</v>
+      </c>
+      <c r="X3">
+        <v>0.5843663743793639</v>
+      </c>
+      <c r="Y3">
+        <v>0.73770542901818481</v>
+      </c>
+      <c r="AA3">
+        <v>1.1968510513003325</v>
+      </c>
+      <c r="AB3">
+        <v>9.1499311361234348</v>
+      </c>
+      <c r="AC3">
+        <v>1.5869647560810283</v>
+      </c>
+      <c r="AD3">
+        <v>1.2239619353438038</v>
+      </c>
+      <c r="AE3">
+        <v>3.4892447898486423</v>
+      </c>
+      <c r="AF3">
+        <v>1.0599348113936315</v>
+      </c>
+      <c r="AG3">
+        <v>1.2897717995617897</v>
+      </c>
+      <c r="AH3">
+        <v>0.32790525412984139</v>
+      </c>
+      <c r="AI3">
+        <v>2.910933541887113</v>
+      </c>
+      <c r="AJ3">
+        <v>2.4468209014044442</v>
+      </c>
+      <c r="AK3">
+        <v>0.5362797980884777</v>
+      </c>
+      <c r="AL3">
+        <v>1.0199937460875148</v>
+      </c>
+      <c r="AM3">
         <v>0.40143632450453087</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.6867536660769435</v>
       </c>
-      <c r="F3">
-        <v>2.0895764572134423</v>
-      </c>
-      <c r="G3">
-        <v>2.0558307813770798</v>
-      </c>
-      <c r="H3">
-        <v>5.2394149891291217</v>
-      </c>
-      <c r="I3">
-        <v>0.89758760378031632</v>
-      </c>
-      <c r="J3">
-        <v>5.9161433108528625</v>
-      </c>
-      <c r="K3">
-        <v>2.4214019347852771</v>
-      </c>
-      <c r="L3">
-        <v>1.2034641097682466</v>
-      </c>
-      <c r="M3">
-        <v>0.71461692813526834</v>
-      </c>
-      <c r="N3">
-        <v>0.63775846757995247</v>
-      </c>
-      <c r="O3">
-        <v>1.899726450634881</v>
-      </c>
-      <c r="P3">
-        <v>0.41976081437833301</v>
-      </c>
-      <c r="Q3">
-        <v>0.61518824540089301</v>
-      </c>
-      <c r="R3">
-        <v>0.49570421837511508</v>
-      </c>
-      <c r="S3">
-        <v>0.31238377758157726</v>
-      </c>
-      <c r="T3">
-        <v>0.23477446428513554</v>
-      </c>
-      <c r="U3">
-        <v>2.5438748206937252</v>
-      </c>
-      <c r="V3">
-        <v>0.91655844640375772</v>
-      </c>
-      <c r="W3">
-        <v>0.14149730839888733</v>
-      </c>
-      <c r="X3">
-        <v>0.58436637399007108</v>
-      </c>
-      <c r="Y3">
-        <v>0.73770543459571924</v>
-      </c>
-      <c r="AA3">
-        <v>1.1968511420190666</v>
-      </c>
-      <c r="AB3">
-        <v>5.018427290114464</v>
-      </c>
-      <c r="AC3">
-        <v>1.5869647583484032</v>
-      </c>
-      <c r="AD3">
-        <v>1.2239619122891539</v>
-      </c>
-      <c r="AE3">
-        <v>2.2178121240169029</v>
-      </c>
-      <c r="AF3">
-        <v>0.86269801167514903</v>
-      </c>
-      <c r="AG3">
-        <v>1.2897718039413306</v>
-      </c>
-      <c r="AH3">
-        <v>0.32790525728795022</v>
-      </c>
-      <c r="AI3">
-        <v>2.9109336194797448</v>
-      </c>
-      <c r="AJ3">
-        <v>2.4468209207995057</v>
-      </c>
-      <c r="AK3">
-        <v>0.53627980190002111</v>
-      </c>
-      <c r="AL3">
-        <v>0.54054619647503555</v>
-      </c>
-      <c r="AM3">
-        <v>0.40143629453063062</v>
-      </c>
-      <c r="AN3">
-        <v>1.6867536624096822</v>
-      </c>
       <c r="AO3">
-        <v>0.28574491422460285</v>
+        <v>0.32195730507650083</v>
       </c>
       <c r="AP3">
-        <v>0.2100489147715075</v>
+        <v>0.2877489089865965</v>
       </c>
       <c r="AQ3">
-        <v>0.1922443392089766</v>
+        <v>0.27686809088726183</v>
       </c>
       <c r="AR3">
-        <v>0.20204477574688234</v>
+        <v>0.20204477544808025</v>
       </c>
       <c r="AS3">
-        <v>0.22328335353150056</v>
+        <v>0.19854837458361788</v>
       </c>
       <c r="AT3">
-        <v>1.0192047910530673</v>
+        <v>1.0192047860657358</v>
       </c>
       <c r="AU3">
-        <v>1.0044783226265623</v>
+        <v>1.0044783299792321</v>
       </c>
       <c r="AV3">
-        <v>0.24082198417341977</v>
+        <v>0.24082198026812826</v>
       </c>
       <c r="AW3">
-        <v>0.36728455558075385</v>
+        <v>0.36728455346076933</v>
       </c>
       <c r="AX3">
-        <v>0.83163146292518264</v>
+        <v>0.83163146286535417</v>
       </c>
       <c r="AY3">
-        <v>0.66162831933027655</v>
+        <v>0.69818717465162172</v>
       </c>
     </row>
   </sheetData>
